--- a/book/data/essay_data.xlsx
+++ b/book/data/essay_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/emily_nordmann_glasgow_ac_uk/Documents/Teaching/psyteachR/scholaRship/book/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_86B432776A876ADB673DA12DDC00D7AE6048B77A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE07036D-59B5-4B8B-8FBF-DA8A2BE0C6E1}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_86B432776A876ADB673DA12DDC00D7AE6048B77A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FD2A119-FFBF-4B2A-A455-3C61D7177144}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5078,7 +5078,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5144,7 +5143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5232,7 +5231,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>9</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>11</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>12</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>13</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>16</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>17</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>18</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19</v>
       </c>
@@ -5980,7 +5979,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>20</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>23</v>
       </c>
@@ -6156,7 +6155,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>24</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>25</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>26</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>27</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>28</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>30</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>31</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>32</v>
       </c>
@@ -6552,7 +6551,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>33</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>34</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>35</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>36</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>37</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>38</v>
       </c>
@@ -6816,7 +6815,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>39</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>40</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>41</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>42</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>43</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>44</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>45</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>46</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>47</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>48</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>49</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>50</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>51</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>52</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>53</v>
       </c>
@@ -7476,7 +7475,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>54</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>55</v>
       </c>
@@ -7564,7 +7563,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>56</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>57</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>58</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>59</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>60</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>61</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>62</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>63</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>64</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>65</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>66</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>67</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>68</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>69</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>70</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>71</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>72</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>73</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>74</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>75</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>76</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>77</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>78</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>79</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>80</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>81</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>83</v>
       </c>
@@ -8796,7 +8795,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>84</v>
       </c>
@@ -8840,7 +8839,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>85</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>86</v>
       </c>
@@ -8928,7 +8927,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>87</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>88</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>89</v>
       </c>
@@ -9060,7 +9059,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>90</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>91</v>
       </c>
@@ -9148,7 +9147,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>92</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>93</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>94</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>96</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>100</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>101</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>102</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>103</v>
       </c>
@@ -9676,7 +9675,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>104</v>
       </c>
@@ -9720,7 +9719,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>105</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>106</v>
       </c>
@@ -9808,7 +9807,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>107</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>108</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>109</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>110</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>111</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>112</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>113</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>114</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>115</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>116</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>117</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>118</v>
       </c>
@@ -10336,7 +10335,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>119</v>
       </c>
@@ -10380,7 +10379,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>120</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>121</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>122</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>124</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>125</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>126</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>127</v>
       </c>
@@ -10732,7 +10731,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>128</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>129</v>
       </c>
@@ -10820,7 +10819,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>130</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>131</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>132</v>
       </c>
@@ -10952,7 +10951,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>133</v>
       </c>
@@ -10996,7 +10995,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>134</v>
       </c>
@@ -11040,7 +11039,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>135</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>136</v>
       </c>
@@ -11128,7 +11127,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>137</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>138</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>139</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>140</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>141</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>142</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>143</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>144</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>145</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>146</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>147</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>148</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>149</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>150</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>151</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>153</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>154</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>155</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>156</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>157</v>
       </c>
@@ -12052,7 +12051,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>158</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>159</v>
       </c>
@@ -12140,7 +12139,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>160</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>161</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>162</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>163</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>165</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>166</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>167</v>
       </c>
@@ -12492,7 +12491,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>168</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>169</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>170</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>171</v>
       </c>
@@ -12668,7 +12667,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>172</v>
       </c>
@@ -12712,7 +12711,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>173</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>174</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>176</v>
       </c>
@@ -12888,7 +12887,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>177</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>178</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>179</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>180</v>
       </c>
@@ -13064,7 +13063,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>181</v>
       </c>
@@ -13108,7 +13107,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>182</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>183</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>184</v>
       </c>
@@ -13240,7 +13239,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>185</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>186</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>187</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>188</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>189</v>
       </c>
@@ -13460,7 +13459,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>190</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>192</v>
       </c>
@@ -13592,7 +13591,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>193</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>194</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>195</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>196</v>
       </c>
@@ -13768,7 +13767,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>197</v>
       </c>
@@ -13812,7 +13811,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>198</v>
       </c>
@@ -13856,7 +13855,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>199</v>
       </c>
@@ -13900,7 +13899,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>200</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>201</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>202</v>
       </c>
@@ -14032,7 +14031,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>203</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>204</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>205</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>206</v>
       </c>
@@ -14208,7 +14207,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>207</v>
       </c>
@@ -14252,7 +14251,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>208</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>210</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>211</v>
       </c>
@@ -14428,7 +14427,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>212</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>213</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>214</v>
       </c>
@@ -14560,7 +14559,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>215</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>216</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>217</v>
       </c>
@@ -14692,7 +14691,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>218</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>219</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>221</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>222</v>
       </c>
@@ -14912,7 +14911,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>223</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>224</v>
       </c>
@@ -15000,7 +14999,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>225</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>226</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>227</v>
       </c>
@@ -15132,7 +15131,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>228</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>229</v>
       </c>
@@ -15220,7 +15219,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>230</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>231</v>
       </c>
@@ -15308,7 +15307,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>232</v>
       </c>
@@ -15352,7 +15351,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>233</v>
       </c>
@@ -15396,7 +15395,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>234</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>235</v>
       </c>
@@ -15484,7 +15483,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>236</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>237</v>
       </c>
@@ -15572,7 +15571,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>238</v>
       </c>
@@ -15616,7 +15615,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>239</v>
       </c>
@@ -15660,7 +15659,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>240</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>241</v>
       </c>
@@ -15748,7 +15747,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>242</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>243</v>
       </c>
@@ -15836,7 +15835,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>244</v>
       </c>
@@ -15880,7 +15879,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>245</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>246</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>247</v>
       </c>
@@ -16012,7 +16011,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>248</v>
       </c>
@@ -16056,7 +16055,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>249</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>250</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>251</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>252</v>
       </c>
@@ -16232,7 +16231,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>253</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>255</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>256</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>257</v>
       </c>
@@ -16452,7 +16451,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>258</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>259</v>
       </c>
@@ -16540,7 +16539,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>260</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>261</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>262</v>
       </c>
@@ -16672,7 +16671,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>263</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>264</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>265</v>
       </c>
@@ -16804,7 +16803,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>266</v>
       </c>
@@ -16848,7 +16847,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>267</v>
       </c>
@@ -16892,7 +16891,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>268</v>
       </c>
@@ -16936,7 +16935,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>269</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>270</v>
       </c>
@@ -17024,7 +17023,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>271</v>
       </c>
@@ -17068,7 +17067,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>272</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>273</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>274</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>275</v>
       </c>
@@ -17244,7 +17243,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>276</v>
       </c>
@@ -17288,7 +17287,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>277</v>
       </c>
@@ -17332,7 +17331,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>278</v>
       </c>
@@ -17376,7 +17375,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>279</v>
       </c>
@@ -17420,7 +17419,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>280</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>281</v>
       </c>
@@ -17508,7 +17507,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>282</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>283</v>
       </c>
@@ -17596,7 +17595,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>284</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>285</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>286</v>
       </c>
@@ -17728,7 +17727,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>287</v>
       </c>
@@ -17816,7 +17815,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>289</v>
       </c>
@@ -17860,7 +17859,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>290</v>
       </c>
@@ -17904,7 +17903,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>291</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>292</v>
       </c>
@@ -17992,7 +17991,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>293</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>294</v>
       </c>
@@ -18080,7 +18079,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>295</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>296</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>297</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>298</v>
       </c>
@@ -18256,7 +18255,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>299</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>300</v>
       </c>
@@ -18346,13 +18345,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A4:N304" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="-"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D52" r:id="rId1" xr:uid="{C7852EA0-19DB-4DF3-AABC-D8AEB98FDD27}"/>
